--- a/data/trans_bre/P27A_4-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P27A_4-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,17 +652,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -640,20 +672,40 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>60,54%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>152,67%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>161,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -668,17 +720,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 2,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,20 +740,40 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-38,69; 335,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,05; 543,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 675,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,17 +792,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -740,20 +812,40 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>139,72%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>359,53%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-22,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -768,17 +860,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 2,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 1,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,20 +880,40 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,17; 1019,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,85; 1420,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-93,27; 827,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>226,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,35; -0,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -898,10 +1030,30 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-41,42; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,17 +1072,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -940,20 +1092,40 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>112,27%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>135,69%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>64,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -968,17 +1140,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,22 +1160,49 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,68; 363,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,94; 343,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,17; 302,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P27A_4-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P27A_4-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,151 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr"/>
+      <c r="K4" s="6" t="inlineStr"/>
+      <c r="L4" s="6" t="inlineStr"/>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="inlineStr"/>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="inlineStr"/>
+      <c r="J7" s="6" t="inlineStr"/>
+      <c r="K7" s="6" t="inlineStr"/>
+      <c r="L7" s="6" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
+      <c r="K8" s="6" t="inlineStr"/>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
+      <c r="K9" s="6" t="inlineStr"/>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +811,145 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="inlineStr"/>
+      <c r="J10" s="6" t="inlineStr"/>
+      <c r="K10" s="6" t="inlineStr"/>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="inlineStr"/>
+      <c r="J13" s="6" t="inlineStr"/>
+      <c r="K13" s="6" t="inlineStr"/>
+      <c r="L13" s="6" t="inlineStr"/>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="inlineStr"/>
+      <c r="K14" s="6" t="inlineStr"/>
+      <c r="L14" s="6" t="inlineStr"/>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="inlineStr"/>
+      <c r="K15" s="6" t="inlineStr"/>
+      <c r="L15" s="6" t="inlineStr"/>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +957,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
